--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="179">
   <si>
     <t>测试点说明</t>
   </si>
@@ -72,30 +72,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>要编辑的资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_del_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_bulkDel_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_query_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -195,9 +179,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_checkout_003</t>
-  </si>
-  <si>
     <t>172.16.10.30</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -254,18 +235,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_003</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_004</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_005</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_006</t>
-  </si>
-  <si>
     <t>no_pass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -366,15 +335,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_007</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_008</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_009</t>
-  </si>
-  <si>
     <t>密码长度超过64位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -415,10 +375,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_addNetworkRes_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.240</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -543,15 +499,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_addNetworkRes_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_modNetwork_004</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -697,12 +645,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_checkout_004</t>
-  </si>
-  <si>
-    <t>test_F04_S03_checkout_005</t>
-  </si>
-  <si>
     <t>要编辑的资源名称</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -711,26 +653,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_del_005</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>资源类型1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称</t>
   </si>
   <si>
@@ -742,10 +668,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_query_003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查询ROOT部门下及子部门下所有资源</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -818,6 +740,50 @@
   </si>
   <si>
     <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addWindowsRes_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_modWindowsRes_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addWindowsResAccount_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delWindowsResAccount_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelWindowsResAccount_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutWindowsRes_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutWindowsResAccount_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryWindowsResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delWindowsRes_009</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryWindowsRes_010</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1334,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,7 +1311,7 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="10" width="32.375" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
@@ -1364,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1376,19 +1342,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1400,89 +1366,89 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="5">
         <v>389</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1497,19 +1463,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
@@ -1518,27 +1484,27 @@
         <v>12</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1553,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -1574,104 +1540,64 @@
         <v>12</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="14.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="7"/>
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1683,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1694,7 +1620,8 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
@@ -1702,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1722,132 +1649,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1860,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1874,8 +1801,13 @@
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="39.125" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
     <col min="16" max="16" width="20.125" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
     <col min="18" max="18" width="34.625" customWidth="1"/>
@@ -1889,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1904,19 +1836,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1928,39 +1860,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1987,10 +1919,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2003,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2014,9 +1946,10 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
@@ -2027,43 +1960,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2072,25 +2005,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2099,27 +2032,27 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2128,27 +2061,27 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13">
         <v>1.23456789012345E+32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2157,27 +2090,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2186,27 +2119,27 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2215,24 +2148,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2244,27 +2177,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2273,21 +2206,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2302,27 +2235,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2331,27 +2264,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2360,27 +2293,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2389,36 +2322,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2435,19 +2368,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
     <col min="6" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="9" max="9" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
@@ -2458,22 +2391,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2481,36 +2414,36 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2522,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2534,12 +2467,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2551,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2563,12 +2496,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2580,10 +2513,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2592,12 +2525,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2606,13 +2539,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2621,7 +2554,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2568,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2644,7 +2577,7 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -2655,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2666,19 +2599,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2692,15 +2625,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
@@ -2711,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2719,16 +2652,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2741,19 +2674,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -2764,19 +2698,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2784,16 +2718,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2805,50 +2739,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2857,102 +2791,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2961,21 +2895,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5">
         <v>1.23456789012345E+32</v>
@@ -2987,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3001,15 +2935,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -3017,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3031,22 +2966,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -3054,12 +2989,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3067,12 +3002,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3082,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3096,14 +3031,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3115,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3123,16 +3058,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -755,36 +755,36 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_addWindowsResAccount_004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_delWindowsResAccount_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_bulkDelWindowsResAccount_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_checkoutWindowsRes_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_checkoutWindowsResAccount_007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_queryWindowsResAccount_008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_delWindowsRes_009</t>
+    <t>test_F04_S03_checkoutWindowsRes_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addWindowsResAccount_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryWindowsRes_003</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_queryWindowsRes_010</t>
+    <t>test_F04_S03_delWindowsRes_005</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delWindowsResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelWindowsResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutWindowsResAccount_010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryWindowsResAccount_011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1610,7 +1610,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1659,7 +1659,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -1674,7 +1674,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
@@ -1708,7 +1708,7 @@
         <v>152</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -1723,7 +1723,7 @@
         <v>157</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -1738,7 +1738,7 @@
         <v>158</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -1753,7 +1753,7 @@
         <v>159</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -1774,7 +1774,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2005,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2090,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2148,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2177,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2206,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2235,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2264,7 +2264,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -2322,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -2351,7 +2351,7 @@
         <v>137</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2438,7 +2438,7 @@
         <v>140</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2467,7 +2467,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2496,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2525,7 +2525,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2554,7 +2554,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2624,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2661,7 +2661,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2674,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2765,7 +2765,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2791,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2843,7 +2843,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2869,7 +2869,7 @@
         <v>80</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +2935,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3031,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3067,7 +3067,7 @@
         <v>153</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="180">
   <si>
     <t>测试点说明</t>
   </si>
@@ -352,14 +352,6 @@
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称长度大于32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称不能大于32</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -784,6 +776,18 @@
   </si>
   <si>
     <t>test_F04_S03_queryWindowsResAccount_011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123qa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称长度大于64位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1342,19 +1346,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1366,89 +1370,89 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="Q2" s="5">
         <v>389</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1463,19 +1467,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
@@ -1484,27 +1488,27 @@
         <v>12</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1519,11 +1523,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1540,63 +1544,63 @@
         <v>12</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1629,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1649,132 +1653,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1836,19 +1840,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1860,39 +1864,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1919,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1972,13 +1976,13 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -2005,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2016,7 +2020,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -2032,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2061,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2090,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2101,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>42</v>
@@ -2119,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2130,13 +2134,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>39</v>
@@ -2148,7 +2152,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2159,13 +2163,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2177,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2185,10 +2189,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>41</v>
@@ -2206,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2217,7 +2221,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>45</v>
@@ -2235,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2246,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>43</v>
@@ -2264,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2275,10 +2279,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -2293,21 +2297,21 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -2322,21 +2326,21 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -2348,10 +2352,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2414,31 +2418,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2467,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2496,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2525,7 +2529,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2554,7 +2558,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2599,19 +2603,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2652,16 +2656,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2674,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2724,7 +2728,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>48</v>
@@ -2739,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2765,7 +2769,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2791,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2817,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2843,7 +2847,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2869,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2895,15 +2899,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
@@ -2911,8 +2915,8 @@
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5">
-        <v>1.23456789012345E+32</v>
+      <c r="E9" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2921,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2966,17 +2970,17 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2989,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3002,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -3017,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3058,16 +3062,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
   <si>
     <t>测试点说明</t>
   </si>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称超过32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称含有非法字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -504,10 +496,6 @@
   </si>
   <si>
     <t>commonwindow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.56</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -788,6 +776,46 @@
   </si>
   <si>
     <t>名称长度大于64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称超过64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号同步协议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>域控管理员账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LDAP连接端口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.155</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1304,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,15 +1343,26 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="10" width="32.375" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="17" width="32.375" customWidth="1"/>
-    <col min="18" max="18" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="18.625" customWidth="1"/>
+    <col min="20" max="20" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,19 +1385,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1370,89 +1409,101 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25">
+        <v>180</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="5">
         <v>389</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25">
+      <c r="S2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1467,48 +1518,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.25">
+        <v>184</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1523,11 +1580,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1541,66 +1598,78 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25">
+        <v>184</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1633,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1653,132 +1722,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -1840,19 +1909,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1864,39 +1933,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1923,10 +1992,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1939,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1970,37 +2039,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2009,25 +2078,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2036,12 +2105,12 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -2050,13 +2119,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2065,27 +2134,27 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1.23456789012345E+32</v>
+        <v>178</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2094,27 +2163,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2123,27 +2192,27 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2152,24 +2221,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2181,27 +2250,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2210,21 +2279,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2239,27 +2308,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2268,27 +2337,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2297,27 +2366,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2326,36 +2395,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2395,22 +2464,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2418,36 +2487,36 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2459,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2471,12 +2540,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2488,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2500,12 +2569,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2517,10 +2586,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2529,12 +2598,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2543,13 +2612,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2558,7 +2627,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2592,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2603,19 +2672,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2656,16 +2725,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2702,19 +2771,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2722,16 +2791,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2743,50 +2812,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2795,102 +2864,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2899,24 +2968,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2925,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2956,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2970,22 +3039,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2993,12 +3062,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3006,12 +3075,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3021,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3062,16 +3131,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="187">
   <si>
     <t>测试点说明</t>
   </si>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows2008 域控服务器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -375,10 +371,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.219</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -439,10 +431,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Windows2008域控(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>主机名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -459,14 +447,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>独立主机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>域内主机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.180</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -479,26 +459,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>window</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>window</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑window资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>commonwindow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.35</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -540,10 +508,6 @@
   </si>
   <si>
     <t>172.16.10.32</t>
-  </si>
-  <si>
-    <t>Windows2008域控(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -663,10 +627,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>域内主机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>删除域内主机资源</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -816,6 +776,46 @@
   </si>
   <si>
     <t>172.16.10.155</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>windowyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>域内主机yy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立主机yy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.230</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonwindowyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows2008域控(172.16.10.230)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除域控资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除独立主机资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除windows资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +971,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1332,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1343,14 +1340,14 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="18.375" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="56.5" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="13.25" customWidth="1"/>
@@ -1385,19 +1382,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1409,101 +1406,101 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="R2" s="5">
         <v>389</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1518,54 +1515,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1580,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -1598,78 +1595,78 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1680,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1702,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1722,132 +1719,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="F9" s="18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1858,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1909,19 +1906,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1933,39 +1930,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1992,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2006,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2045,13 +2042,13 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -2078,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2089,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -2105,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2134,18 +2131,18 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -2163,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2174,7 +2171,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>40</v>
@@ -2192,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2203,13 +2200,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>37</v>
@@ -2221,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2232,13 +2229,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2250,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2258,10 +2255,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
@@ -2279,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2290,7 +2287,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>43</v>
@@ -2308,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2319,10 +2316,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>41</v>
@@ -2337,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2348,10 +2345,10 @@
         <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -2366,21 +2363,21 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -2395,21 +2392,21 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -2421,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2439,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2487,31 +2484,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2540,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2569,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2598,7 +2595,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2627,7 +2624,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2638,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2678,13 +2675,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2695,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2731,10 +2728,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2745,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2797,7 +2794,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>46</v>
@@ -2812,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2838,7 +2835,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2864,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2890,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2916,7 +2913,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2942,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2968,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
@@ -2985,7 +2982,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2994,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3005,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3042,14 +3039,14 @@
         <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -3062,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3075,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -3090,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3101,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3123,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3131,20 +3128,59 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="19"/>
+      <c r="B4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -104,19 +104,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IP为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IP格式不合法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -816,6 +808,14 @@
   </si>
   <si>
     <t>cyyb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1382,19 +1382,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1406,101 +1406,101 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R2" s="5">
         <v>389</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1515,54 +1515,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1577,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -1595,78 +1595,78 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1699,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1719,132 +1719,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1906,19 +1906,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1930,39 +1930,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1989,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2036,19 +2036,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -2060,13 +2060,13 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2075,25 +2075,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2102,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2116,13 +2116,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2131,27 +2131,27 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2160,27 +2160,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2189,27 +2189,27 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2218,24 +2218,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2247,27 +2247,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2276,21 +2276,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2305,27 +2305,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2334,27 +2334,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2363,27 +2363,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2392,36 +2392,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2461,22 +2461,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2484,36 +2484,36 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2537,12 +2537,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2554,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2566,12 +2566,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2583,10 +2583,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2595,12 +2595,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2609,13 +2609,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2624,7 +2624,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2658,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2669,19 +2669,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2768,19 +2768,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2788,16 +2788,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2809,50 +2809,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2861,102 +2861,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2965,24 +2965,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3022,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3036,22 +3036,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -3059,12 +3059,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3072,12 +3072,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3128,58 +3128,58 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>编辑window资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.35</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -767,10 +763,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.155</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>windowyy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -816,6 +808,14 @@
   </si>
   <si>
     <t>地址输入不正确，请重新输入!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1409,13 +1409,13 @@
         <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>108</v>
@@ -1438,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>88</v>
@@ -1471,16 +1471,16 @@
         <v>92</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R2" s="5">
         <v>389</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
@@ -1494,7 +1494,7 @@
         <v>97</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1533,16 +1533,16 @@
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25">
@@ -1556,7 +1556,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1577,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>102</v>
@@ -1595,16 +1595,16 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25">
@@ -1618,13 +1618,13 @@
         <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>100</v>
@@ -1657,16 +1657,16 @@
         <v>100</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1699,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1719,132 +1719,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1947,16 +1947,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -1992,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2075,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2083,10 +2083,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -2102,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2131,18 +2131,18 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>36</v>
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2168,10 +2168,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -2189,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2200,13 +2200,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2229,13 +2229,13 @@
         <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2247,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2255,10 +2255,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>37</v>
@@ -2276,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2287,7 +2287,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2316,10 +2316,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2345,10 +2345,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -2363,21 +2363,21 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -2392,21 +2392,21 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -2418,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2484,13 +2484,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>89</v>
@@ -2499,16 +2499,16 @@
         <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2566,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2595,7 +2595,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2624,7 +2624,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2675,13 +2675,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2728,10 +2728,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2794,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>44</v>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2835,7 +2835,7 @@
         <v>68</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2861,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2913,7 +2913,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2939,7 +2939,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2965,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3039,14 +3039,14 @@
         <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3100,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3128,58 +3128,58 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
